--- a/Organisation neu/Arbeitsaufwand.xlsx
+++ b/Organisation neu/Arbeitsaufwand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\5AHIF\Caring\Organisation neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB39FA7-1001-4487-82FA-031472B98A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232857DC-B86E-4BAB-8EAD-5E7C05492059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{77040570-A057-4A23-9CF0-428054FED2DF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Arbeitsaufwand</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>Redux accessing Webservice</t>
+  </si>
+  <si>
+    <t>Gernerlles Bugfixing/Installation</t>
+  </si>
+  <si>
+    <t>npm, debugger</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>Bugs, librarys etc.</t>
   </si>
 </sst>
 </file>
@@ -178,6 +190,27 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -196,27 +229,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -231,16 +243,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA4AE070-75B9-448E-B4DE-9E4CBA448CCA}" name="Tabelle3" displayName="Tabelle3" ref="A4:G12" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A4:G12" xr:uid="{7AC34B31-38B1-4BB4-BEA9-3A026B7B09BC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA4AE070-75B9-448E-B4DE-9E4CBA448CCA}" name="Tabelle3" displayName="Tabelle3" ref="A4:G41" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A4:G40" xr:uid="{7AC34B31-38B1-4BB4-BEA9-3A026B7B09BC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0F8E600A-1766-470A-90C1-3764FD841947}" name="Use-Story" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{0F8E600A-1766-470A-90C1-3764FD841947}" name="Use-Story" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{AB586EA6-1F55-4DD6-AE0A-C0B64F56D1D9}" name="Technology"/>
-    <tableColumn id="3" xr3:uid="{BD0004FB-9367-4F05-BDC6-6C0342E8D3D6}" name="Person" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{2E81CA90-78FE-45BF-BD8D-307428A27171}" name="Rolle" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{F76BD70A-AE29-4E13-AFC9-4E9A0861344E}" name="Arbeitsaufwand Gesamt" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{87868F63-3096-42D7-A98E-C523B73972DB}" name="Probleme" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{20982CC3-F493-4A6F-ACAD-DCC4C3D2DC97}" name="Zeit zur Problembehandlung" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BD0004FB-9367-4F05-BDC6-6C0342E8D3D6}" name="Person" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2E81CA90-78FE-45BF-BD8D-307428A27171}" name="Rolle" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{F76BD70A-AE29-4E13-AFC9-4E9A0861344E}" name="Arbeitsaufwand Gesamt" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{87868F63-3096-42D7-A98E-C523B73972DB}" name="Probleme" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{20982CC3-F493-4A6F-ACAD-DCC4C3D2DC97}" name="Zeit zur Problembehandlung" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -543,15 +555,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912938B7-39EF-4154-803B-B48569455CCC}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="85.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -673,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="3">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>18</v>
@@ -742,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="3">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>21</v>
@@ -773,6 +785,245 @@
       <c r="G12" s="3">
         <v>120</v>
       </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Organisation neu/Arbeitsaufwand.xlsx
+++ b/Organisation neu/Arbeitsaufwand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\5AHIF\Caring\Organisation neu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schuljahr 19_20\Caring\Organisation neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232857DC-B86E-4BAB-8EAD-5E7C05492059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA58415-AF1F-4368-9C68-16A9C67E1AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{77040570-A057-4A23-9CF0-428054FED2DF}"/>
+    <workbookView xWindow="-9348" yWindow="1644" windowWidth="17280" windowHeight="8964" xr2:uid="{77040570-A057-4A23-9CF0-428054FED2DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>Arbeitsaufwand</t>
   </si>
@@ -126,6 +126,48 @@
   </si>
   <si>
     <t>Bugs, librarys etc.</t>
+  </si>
+  <si>
+    <t>Steinberger/Stich</t>
+  </si>
+  <si>
+    <t>User anmelden</t>
+  </si>
+  <si>
+    <t>User logout</t>
+  </si>
+  <si>
+    <t>Bezahlmethode hinzufügen</t>
+  </si>
+  <si>
+    <t>Schaden melden</t>
+  </si>
+  <si>
+    <t>Entsprechende verbindung zum Backend (Vebindung Android mit Webservices)</t>
+  </si>
+  <si>
+    <t>Android (JAVA)</t>
+  </si>
+  <si>
+    <t>Stich</t>
+  </si>
+  <si>
+    <t>Versionen</t>
+  </si>
+  <si>
+    <t>Darstellung/ Buttons / Bildformat</t>
+  </si>
+  <si>
+    <t>Formatierung</t>
+  </si>
+  <si>
+    <t>Bugfix Bugfix Bugfix</t>
+  </si>
+  <si>
+    <t>Entsprechende verbindung zum Backend (Vebindung Android mit Webservices) geleistete Hilfe</t>
+  </si>
+  <si>
+    <t>Matendorfer</t>
   </si>
 </sst>
 </file>
@@ -558,32 +600,32 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="85.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -606,7 +648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -614,7 +656,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
@@ -627,7 +669,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -648,7 +690,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -671,7 +713,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -694,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -717,7 +759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -740,7 +782,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -763,7 +805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -786,7 +828,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -809,55 +851,145 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>180</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>60</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>240</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>120</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>900</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3">
+        <v>300</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
@@ -865,7 +997,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
@@ -873,7 +1005,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="5"/>
@@ -881,7 +1013,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="5"/>
@@ -889,7 +1021,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="5"/>
@@ -897,7 +1029,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="5"/>
@@ -905,7 +1037,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
@@ -913,7 +1045,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
@@ -921,7 +1053,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
@@ -929,7 +1061,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
@@ -937,7 +1069,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="5"/>
@@ -945,7 +1077,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="5"/>
@@ -953,7 +1085,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="5"/>
@@ -961,7 +1093,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="5"/>
@@ -969,7 +1101,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="5"/>
@@ -977,7 +1109,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="5"/>
@@ -985,7 +1117,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="5"/>
@@ -993,7 +1125,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="5"/>
@@ -1001,7 +1133,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="5"/>
@@ -1009,7 +1141,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="5"/>
@@ -1017,7 +1149,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="5"/>

--- a/Organisation neu/Arbeitsaufwand.xlsx
+++ b/Organisation neu/Arbeitsaufwand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schuljahr 19_20\Caring\Organisation neu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5AHIF\CARING\Caring\Organisation neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA58415-AF1F-4368-9C68-16A9C67E1AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C566DE4D-2348-4F7A-B2DB-B8F0FFB8D372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9348" yWindow="1644" windowWidth="17280" windowHeight="8964" xr2:uid="{77040570-A057-4A23-9CF0-428054FED2DF}"/>
+    <workbookView xWindow="-11385" yWindow="4395" windowWidth="21600" windowHeight="11385" xr2:uid="{77040570-A057-4A23-9CF0-428054FED2DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>Arbeitsaufwand</t>
   </si>
@@ -167,7 +167,28 @@
     <t>Entsprechende verbindung zum Backend (Vebindung Android mit Webservices) geleistete Hilfe</t>
   </si>
   <si>
-    <t>Matendorfer</t>
+    <t>Mautendorfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User registrieren </t>
+  </si>
+  <si>
+    <t>Auto mieten</t>
+  </si>
+  <si>
+    <t>Mapbox einbindung</t>
+  </si>
+  <si>
+    <t>Auto abstellen</t>
+  </si>
+  <si>
+    <t>eigenes Auto anbieten</t>
+  </si>
+  <si>
+    <t>Autos anzeigen</t>
+  </si>
+  <si>
+    <t>Adapter formatieren</t>
   </si>
 </sst>
 </file>
@@ -600,32 +621,32 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -648,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -669,7 +690,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -690,7 +711,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -713,7 +734,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -736,7 +757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -759,7 +780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -782,7 +803,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -805,7 +826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -828,7 +849,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -851,7 +872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -874,7 +895,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -897,7 +918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -920,7 +941,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -943,7 +964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -966,7 +987,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -989,55 +1010,137 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3">
+        <v>20</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
+        <v>120</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
+        <v>60</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
+        <v>90</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3">
+        <v>120</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
@@ -1045,7 +1148,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
@@ -1053,7 +1156,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
@@ -1061,7 +1164,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
@@ -1069,7 +1172,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="5"/>
@@ -1077,7 +1180,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="5"/>
@@ -1085,7 +1188,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="5"/>
@@ -1093,7 +1196,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="5"/>
@@ -1101,7 +1204,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="5"/>
@@ -1109,7 +1212,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="5"/>
@@ -1117,7 +1220,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="5"/>
@@ -1125,7 +1228,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="5"/>
@@ -1133,7 +1236,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="5"/>
@@ -1141,7 +1244,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="5"/>
@@ -1149,7 +1252,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="5"/>

--- a/Organisation neu/Arbeitsaufwand.xlsx
+++ b/Organisation neu/Arbeitsaufwand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5AHIF\CARING\Caring\Organisation neu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannes Wirnsberger\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C566DE4D-2348-4F7A-B2DB-B8F0FFB8D372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E698E82-3EC2-4037-B9F5-6D3C5BE5B0DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11385" yWindow="4395" windowWidth="21600" windowHeight="11385" xr2:uid="{77040570-A057-4A23-9CF0-428054FED2DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{77040570-A057-4A23-9CF0-428054FED2DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
   <si>
     <t>Arbeitsaufwand</t>
   </si>
@@ -189,6 +189,57 @@
   </si>
   <si>
     <t>Adapter formatieren</t>
+  </si>
+  <si>
+    <t>Webservices definieren</t>
+  </si>
+  <si>
+    <t>Webservices ausarbeiten</t>
+  </si>
+  <si>
+    <t>Datenbank SQL</t>
+  </si>
+  <si>
+    <t>Wirnsberger</t>
+  </si>
+  <si>
+    <t>DB/Webservice Mensch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenmodell zeichnen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabellen definieren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabellen mit Testdaten füllen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenmodell neu zeichnen </t>
+  </si>
+  <si>
+    <t>Tabellen neu definieren</t>
+  </si>
+  <si>
+    <t>Tabellen neu mit Testdaten füllen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neu Webserivece ruten definieren </t>
+  </si>
+  <si>
+    <t>Webservice neu ausarbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trigger erstellen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postman Collection erstellen </t>
+  </si>
+  <si>
+    <t>Webservice(JAVA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wurde neu angefordet </t>
   </si>
 </sst>
 </file>
@@ -232,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -247,6 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -621,32 +673,32 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -669,7 +721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -690,7 +742,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -711,7 +763,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -734,7 +786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -757,7 +809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -780,7 +832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -803,7 +855,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -826,7 +878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -849,7 +901,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -872,7 +924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -895,7 +947,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -918,7 +970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -941,7 +993,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -964,7 +1016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -987,7 +1039,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1010,7 +1062,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1029,7 +1081,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1052,7 +1104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1075,7 +1127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -1098,7 +1150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -1117,7 +1169,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -1140,103 +1192,243 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="3"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="3">
+        <v>40</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="3">
+        <v>40</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="3">
+        <v>30</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="3">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="3">
+        <v>500</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="3">
+        <v>50</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="3"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="3">
+        <v>20</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="3"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="3">
+        <v>20</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="3"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="3">
+        <v>20</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="3"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="3">
+        <v>300</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="3">
+        <v>40</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="3"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="3">
+        <v>60</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="5"/>
@@ -1244,7 +1436,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="5"/>
@@ -1252,7 +1444,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="5"/>

--- a/Organisation neu/Arbeitsaufwand.xlsx
+++ b/Organisation neu/Arbeitsaufwand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannes Wirnsberger\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\5AHIF\Caring\Organisation neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E698E82-3EC2-4037-B9F5-6D3C5BE5B0DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0375218-4BA5-4543-A2F7-F76265D55469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{77040570-A057-4A23-9CF0-428054FED2DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{77040570-A057-4A23-9CF0-428054FED2DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>Arbeitsaufwand</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Wirnsberger</t>
   </si>
   <si>
-    <t>DB/Webservice Mensch</t>
-  </si>
-  <si>
     <t xml:space="preserve">Datenmodell zeichnen </t>
   </si>
   <si>
@@ -240,6 +237,18 @@
   </si>
   <si>
     <t xml:space="preserve">wurde neu angefordet </t>
+  </si>
+  <si>
+    <t>DB Mensch</t>
+  </si>
+  <si>
+    <t>Android-Entwickler</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>in Stunden</t>
   </si>
 </sst>
 </file>
@@ -283,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -299,6 +308,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -358,16 +376,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA4AE070-75B9-448E-B4DE-9E4CBA448CCA}" name="Tabelle3" displayName="Tabelle3" ref="A4:G41" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A4:G40" xr:uid="{7AC34B31-38B1-4BB4-BEA9-3A026B7B09BC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA4AE070-75B9-448E-B4DE-9E4CBA448CCA}" name="Tabelle3" displayName="Tabelle3" ref="A4:G38" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A4:G37" xr:uid="{7AC34B31-38B1-4BB4-BEA9-3A026B7B09BC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0F8E600A-1766-470A-90C1-3764FD841947}" name="Use-Story" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{0F8E600A-1766-470A-90C1-3764FD841947}" name="Use-Story" totalsRowLabel="Gesamt" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{AB586EA6-1F55-4DD6-AE0A-C0B64F56D1D9}" name="Technology"/>
     <tableColumn id="3" xr3:uid="{BD0004FB-9367-4F05-BDC6-6C0342E8D3D6}" name="Person" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{2E81CA90-78FE-45BF-BD8D-307428A27171}" name="Rolle" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{F76BD70A-AE29-4E13-AFC9-4E9A0861344E}" name="Arbeitsaufwand Gesamt" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{F76BD70A-AE29-4E13-AFC9-4E9A0861344E}" name="Arbeitsaufwand Gesamt" totalsRowFunction="sum" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{87868F63-3096-42D7-A98E-C523B73972DB}" name="Probleme" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{20982CC3-F493-4A6F-ACAD-DCC4C3D2DC97}" name="Zeit zur Problembehandlung" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{20982CC3-F493-4A6F-ACAD-DCC4C3D2DC97}" name="Zeit zur Problembehandlung" totalsRowFunction="sum" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -670,35 +688,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912938B7-39EF-4154-803B-B48569455CCC}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -721,7 +739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -742,7 +760,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -763,7 +781,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -786,7 +804,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -809,7 +827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -832,7 +850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -855,7 +873,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -878,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -901,18 +919,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>29</v>
@@ -924,7 +942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -935,7 +953,7 @@
         <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3">
         <v>180</v>
@@ -947,7 +965,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -958,7 +976,7 @@
         <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3">
         <v>60</v>
@@ -970,7 +988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -981,7 +999,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3">
         <v>240</v>
@@ -993,7 +1011,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -1004,7 +1022,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3">
         <v>120</v>
@@ -1016,7 +1034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -1027,7 +1045,7 @@
         <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3">
         <v>900</v>
@@ -1039,7 +1057,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1050,7 +1068,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3">
         <v>300</v>
@@ -1062,7 +1080,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1091,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E20" s="3">
         <v>20</v>
@@ -1081,7 +1099,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1092,7 +1110,7 @@
         <v>44</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3">
         <v>120</v>
@@ -1104,7 +1122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1115,7 +1133,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1127,7 +1145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -1138,7 +1156,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E23" s="3">
         <v>60</v>
@@ -1150,7 +1168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -1161,7 +1179,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E24" s="3">
         <v>90</v>
@@ -1169,7 +1187,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -1180,7 +1198,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E25" s="3">
         <v>120</v>
@@ -1192,9 +1210,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -1202,8 +1220,8 @@
       <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>56</v>
+      <c r="D26" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E26" s="3">
         <v>40</v>
@@ -1211,9 +1229,9 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>54</v>
@@ -1221,20 +1239,20 @@
       <c r="C27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>56</v>
+      <c r="D27" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E27" s="3">
         <v>40</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>54</v>
@@ -1242,62 +1260,62 @@
       <c r="C28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>56</v>
+      <c r="D28" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E28" s="3">
         <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>56</v>
+      <c r="D29" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E29" s="3">
         <v>20</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>56</v>
+      <c r="D30" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E30" s="3">
         <v>500</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>54</v>
@@ -1305,8 +1323,8 @@
       <c r="C31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>56</v>
+      <c r="D31" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E31" s="3">
         <v>50</v>
@@ -1314,9 +1332,9 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>54</v>
@@ -1324,8 +1342,8 @@
       <c r="C32" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>56</v>
+      <c r="D32" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E32" s="3">
         <v>20</v>
@@ -1333,9 +1351,9 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>54</v>
@@ -1343,8 +1361,8 @@
       <c r="C33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>56</v>
+      <c r="D33" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E33" s="3">
         <v>20</v>
@@ -1352,18 +1370,18 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>56</v>
+      <c r="D34" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E34" s="3">
         <v>20</v>
@@ -1371,18 +1389,18 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>56</v>
+      <c r="D35" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E35" s="3">
         <v>300</v>
@@ -1390,9 +1408,9 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>54</v>
@@ -1400,8 +1418,8 @@
       <c r="C36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>56</v>
+      <c r="D36" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E36" s="3">
         <v>40</v>
@@ -1409,18 +1427,18 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>56</v>
+      <c r="D37" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E37" s="3">
         <v>60</v>
@@ -1428,29 +1446,50 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38">
+        <f>SUBTOTAL(109,Tabelle3[Arbeitsaufwand Gesamt])</f>
+        <v>4455</v>
+      </c>
+      <c r="G38">
+        <f>SUBTOTAL(109,Tabelle3[Zeit zur Problembehandlung])</f>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
+      <c r="E39" s="9">
+        <f>Tabelle3[[#Totals],[Arbeitsaufwand Gesamt]]/60</f>
+        <v>74.25</v>
+      </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G39" s="9">
+        <f>Tabelle3[[#Totals],[Zeit zur Problembehandlung]]/60</f>
+        <v>24.166666666666668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="5"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Organisation neu/Arbeitsaufwand.xlsx
+++ b/Organisation neu/Arbeitsaufwand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\5AHIF\Caring\Organisation neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0375218-4BA5-4543-A2F7-F76265D55469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5C6A8A-3BA3-4F3F-84A8-735CB9ECCC3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{77040570-A057-4A23-9CF0-428054FED2DF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="73">
   <si>
     <t>Arbeitsaufwand</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>in Stunden</t>
+  </si>
+  <si>
+    <t>Mautendofer</t>
   </si>
 </sst>
 </file>
@@ -373,6 +376,873 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$C$40:$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Wirnsberger</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stich</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Steinberger</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mautendofer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$40:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D86-4BF8-B29A-A01C54740A83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="463607584"/>
+        <c:axId val="463605288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="463607584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463605288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="463605288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463607584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>71804</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>18317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>111370</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>94517</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37955085-3B14-4914-B404-236EBA084819}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -688,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912938B7-39EF-4154-803B-B48569455CCC}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E40" activeCellId="1" sqref="C40:C43 E40:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,25 +2347,204 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D40" s="5"/>
-      <c r="E40" s="3"/>
+      <c r="E40" s="3">
+        <f>SUM(E26:E37)</f>
+        <v>1140</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3">
+        <f>SUM(E5,E14:E18)</f>
+        <v>1525</v>
+      </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <f>SUM(E5:E13) + 200</f>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43">
+        <f>SUM(E19:E25)</f>
+        <v>1010</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{15A2C349-41AC-434E-B5EF-7D8E27E99EFB}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C5:C5</xm:f>
+              <xm:sqref>E5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C6:C6</xm:f>
+              <xm:sqref>E6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C7:C7</xm:f>
+              <xm:sqref>E7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C8:C8</xm:f>
+              <xm:sqref>E8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C9:C9</xm:f>
+              <xm:sqref>E9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C10:C10</xm:f>
+              <xm:sqref>E10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C11:C11</xm:f>
+              <xm:sqref>E11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C12:C12</xm:f>
+              <xm:sqref>E12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C13:C13</xm:f>
+              <xm:sqref>E13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C14:C14</xm:f>
+              <xm:sqref>E14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C15:C15</xm:f>
+              <xm:sqref>E15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C16:C16</xm:f>
+              <xm:sqref>E16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C17:C17</xm:f>
+              <xm:sqref>E17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C18:C18</xm:f>
+              <xm:sqref>E18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C19:C19</xm:f>
+              <xm:sqref>E19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C20:C20</xm:f>
+              <xm:sqref>E20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C21:C21</xm:f>
+              <xm:sqref>E21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C22:C22</xm:f>
+              <xm:sqref>E22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C23:C23</xm:f>
+              <xm:sqref>E23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C24:C24</xm:f>
+              <xm:sqref>E24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C25:C25</xm:f>
+              <xm:sqref>E25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C26:C26</xm:f>
+              <xm:sqref>E26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C27:C27</xm:f>
+              <xm:sqref>E27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C28:C28</xm:f>
+              <xm:sqref>E28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C29:C29</xm:f>
+              <xm:sqref>E29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C30:C30</xm:f>
+              <xm:sqref>E30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C31:C31</xm:f>
+              <xm:sqref>E31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C32:C32</xm:f>
+              <xm:sqref>E32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C33:C33</xm:f>
+              <xm:sqref>E33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C34:C34</xm:f>
+              <xm:sqref>E34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C35:C35</xm:f>
+              <xm:sqref>E35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C36:C36</xm:f>
+              <xm:sqref>E36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C37:C37</xm:f>
+              <xm:sqref>E37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>